--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -639,25 +639,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>1</v>
@@ -704,88 +704,88 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1" t="n">
         <v>1</v>
@@ -802,88 +802,88 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -1215,10 +1215,10 @@
         <v>-1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>-1</v>
@@ -1399,10 +1399,10 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>-1</v>
@@ -1551,13 +1551,13 @@
         <v>-1</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>-1</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>-1</v>
@@ -1699,10 +1699,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1877,91 +1877,91 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1" t="n">
         <v>1</v>
@@ -1987,79 +1987,79 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD5 C6:AE6 C7:AD7 C8:I8 C9:AF12 C13:AD16 C17:D17 G7:AF8 G13:AF13 G15:AE18 J1:J3 J2:K2 K1:K4 S6:AF7 V5:AF5 Z12:AF14 AE11:AE15 AF11:AF14">
+  <conditionalFormatting sqref="B2:J4 B5:B14 B5:K5 C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF13 G15:AE18 H7:P14 L3:AF4 Q9:AF9 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD9:AD12 AE7:AF8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2291,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2764,7 +2764,9 @@
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="P14" s="1" t="n"/>
@@ -2792,9 +2794,7 @@
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -2804,7 +2804,9 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
+      <c r="M15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -2830,9 +2832,7 @@
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
@@ -2842,7 +2842,9 @@
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
+      <c r="M16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -2868,9 +2870,7 @@
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="4" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -2880,7 +2880,9 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
+      <c r="M17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
@@ -2906,91 +2908,71 @@
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="N18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="O18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="P18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="Q18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="R18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="S18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="T18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="U18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="V18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="W18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="X18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="Y18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="Z18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="AA18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="AB18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="AC18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="AD18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="2" t="n">
+      <c r="AE18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AF18" s="2" t="n"/>

--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d-master\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9962F-69E2-4EA5-87B5-4FFA8E0CA9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FA2C51-6250-42FE-A430-F1FA0912B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,94 +642,94 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -740,94 +740,94 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -925,7 +925,7 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>-1</v>
@@ -1121,7 +1121,7 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>-1</v>
@@ -1219,7 +1219,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>-1</v>
@@ -1317,7 +1317,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>-1</v>
@@ -1415,7 +1415,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -1513,7 +1513,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -2215,7 +2215,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 L3:AF4 C3:U5 B5:K5 V5:AF5 B5:B14 C6:Q7 S6:AF7 G6:AE9 C6:G16 AE7:AF8 H7:P14 AA8:AF8 Q9:AF9 AD9:AD12 Z12:AF14 Q13:Y14 G15:AE18 G10:AF13">
+  <conditionalFormatting sqref="B2:J4 L3:AF4 C3:U5 B5:K5 V5:AF5 C6:Q7 S6:AF7 G6:AE9 C6:G16 AE7:AF8 H7:P14 AA8:AF8 Q9:AF9 AD9:AD12 G10:AF13 Z12:AF14 Q13:Y14 G15:AE18 B4:Y4 B3:AE3 B5:B14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -604,94 +604,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -702,94 +702,94 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -800,64 +800,64 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>3</v>
@@ -898,34 +898,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-1</v>
@@ -985,10 +985,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1083,10 +1083,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1181,10 +1181,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1472,7 +1472,7 @@
         <v>-1</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="1" t="n">
         <v>3</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1570,7 +1570,7 @@
         <v>-1</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="1" t="n">
         <v>3</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1629,10 +1629,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>-1</v>
@@ -1668,13 +1668,13 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1772,7 +1772,7 @@
         <v>-1</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1870,7 +1870,7 @@
         <v>-1</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1878,94 +1878,94 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF15" s="1" t="n">
         <v>1</v>
@@ -1976,94 +1976,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2074,94 +2074,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2187,79 +2187,79 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF18" s="1" t="n">
         <v>1</v>
@@ -2274,7 +2274,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B3:AE3 B4:Y4 B5:B14 B5:K5 C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF13 G15:AE18 H7:P14 L3:AF4 Q9:AF9 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD9:AD12 AE7:AF8">
+  <conditionalFormatting sqref="C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF10 G11:AE13 G15:AE18 H7:P14 K2:K4 L2:V2 Q9:AF9 Q11:AF11 Q13:Y14 S6:AF7 V3:V4 V5:AF5 W4:AE4 Z12:AF14 AA8:AF8 AD10:AD11 AE10:AE12">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2293,7 +2293,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11:AF11"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2469,6 +2469,9 @@
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2502,6 +2505,9 @@
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2535,6 +2541,9 @@
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2669,8 +2678,8 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -2703,12 +2712,8 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -2741,12 +2746,8 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -2761,9 +2762,7 @@
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="P14" s="1" t="n"/>
@@ -2781,12 +2780,8 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
@@ -2801,9 +2796,7 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -2821,9 +2814,7 @@
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE15" s="4" t="n"/>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
@@ -2839,9 +2830,7 @@
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -2859,9 +2848,7 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE16" s="4" t="n"/>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2877,9 +2864,7 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
@@ -2897,9 +2882,7 @@
       <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE17" s="4" t="n"/>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2915,63 +2898,25 @@
       <c r="J18" s="4" t="n"/>
       <c r="K18" s="4" t="n"/>
       <c r="L18" s="4" t="n"/>
-      <c r="M18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="4" t="n"/>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="n"/>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n"/>
+      <c r="AA18" s="4" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AC18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AE18" s="4" t="n"/>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2959,4 +2960,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65997956-43F8-48BD-901E-0BB939D0BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDDBC3-7BA3-4655-B319-9166A483796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/stages/maps/MapEditor/Room9.xlsx
+++ b/assets/stages/maps/MapEditor/Room9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDDBC3-7BA3-4655-B319-9166A483796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C7AF4-5C72-4FCC-9E3C-4BE7A602260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
         <v>2</v>
@@ -686,13 +686,13 @@
         <v>-1</v>
       </c>
       <c r="P3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1">
         <v>-1</v>
@@ -704,10 +704,10 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" s="1">
         <v>2</v>
@@ -784,13 +784,13 @@
         <v>-1</v>
       </c>
       <c r="P4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1">
         <v>-1</v>
@@ -802,7 +802,7 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1">
         <v>3</v>
@@ -882,13 +882,13 @@
         <v>-1</v>
       </c>
       <c r="P5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1">
         <v>-1</v>
@@ -2217,7 +2217,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:V2 K2:K4 V3:V4 C3:U5 W4:AE4 V5:AF5 C6:Q7 S6:AF7 G6:AE9 C6:G16 H7:P14 AA8:AF8 Q9:AF9 G10:AF10 AD10:AD11 AE10:AE12 Q11:AF11 Z12:AF14 Q13:Y14 G15:AE18 G11:AE13">
+  <conditionalFormatting sqref="L2:V2 K2:K4 W4:AE4 V5:AF5 C6:Q7 S6:AF7 G6:AE9 C6:G16 H7:P14 AA8:AF8 Q9:AF9 G10:AF10 AD10:AD11 AE10:AE12 Q11:AF11 G11:AE13 Z12:AF14 Q13:Y14 G15:AE18 C3:U5 W2:W4 V3:V4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2232,7 +2232,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2320,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <v>7</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2882,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="Q4:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
